--- a/Data/Batch Input Template-AXA Broker Home.xlsx
+++ b/Data/Batch Input Template-AXA Broker Home.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamszeq\Desktop\Clones\AdHoc-Data-Requests\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBBB2DE-812D-4C36-AEA0-84F76E70D408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049567BE-5CFC-4C06-AE4D-6042D4E61D38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AE$1:$AE$101</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="149">
   <si>
     <t>Quote ID</t>
   </si>
@@ -149,6 +146,15 @@
     <t>CO</t>
   </si>
   <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Non Standard 20%</t>
+  </si>
+  <si>
+    <t>Non Standard 10%</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -161,250 +167,316 @@
     <t>Aviva</t>
   </si>
   <si>
+    <t>RSA</t>
+  </si>
+  <si>
     <t>Liberty Ireland</t>
   </si>
   <si>
-    <t>RSA</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>D24 RH79</t>
-  </si>
-  <si>
-    <t>D22 X5H0</t>
-  </si>
-  <si>
-    <t>T12 K6DV</t>
-  </si>
-  <si>
-    <t>W23 RH45</t>
-  </si>
-  <si>
-    <t>W91 P5DE</t>
-  </si>
-  <si>
-    <t>D14 E8N2</t>
-  </si>
-  <si>
-    <t>A92 RD35</t>
-  </si>
-  <si>
-    <t>D6W RC98</t>
-  </si>
-  <si>
-    <t>F23 AY90</t>
-  </si>
-  <si>
-    <t>D15 NAC1</t>
-  </si>
-  <si>
-    <t>D05 W180</t>
-  </si>
-  <si>
-    <t>A92 V8EF</t>
-  </si>
-  <si>
-    <t>R14 A275</t>
-  </si>
-  <si>
-    <t>D15 EFK8</t>
-  </si>
-  <si>
-    <t>D13 TW59</t>
-  </si>
-  <si>
-    <t>H91 FY0A</t>
-  </si>
-  <si>
-    <t>Y21 W1W0</t>
-  </si>
-  <si>
-    <t>K34 EY79</t>
-  </si>
-  <si>
-    <t>D18 E2W4</t>
-  </si>
-  <si>
-    <t>D11 H026</t>
-  </si>
-  <si>
-    <t>D16 VW61</t>
-  </si>
-  <si>
-    <t>H91 FWE1</t>
-  </si>
-  <si>
-    <t>P25 V446</t>
-  </si>
-  <si>
-    <t>D15 NW98</t>
-  </si>
-  <si>
-    <t>D14 HF50</t>
-  </si>
-  <si>
-    <t>D05 C8E8</t>
-  </si>
-  <si>
-    <t>K34 X447</t>
-  </si>
-  <si>
-    <t>K78 D791</t>
-  </si>
-  <si>
-    <t>D05 F3F2</t>
-  </si>
-  <si>
-    <t>K36 FN25</t>
-  </si>
-  <si>
-    <t>D04 C568</t>
-  </si>
-  <si>
-    <t>D03 HN47</t>
-  </si>
-  <si>
-    <t>T12 H7P4</t>
-  </si>
-  <si>
-    <t>T12 CDE7</t>
-  </si>
-  <si>
-    <t>D06 H6P0</t>
-  </si>
-  <si>
-    <t>N91 TH26</t>
-  </si>
-  <si>
-    <t>P31 VP76</t>
-  </si>
-  <si>
-    <t>H53 PW10</t>
-  </si>
-  <si>
-    <t>A96 YW57</t>
-  </si>
-  <si>
-    <t>D07 C7Y0</t>
-  </si>
-  <si>
-    <t>D05 VF25</t>
-  </si>
-  <si>
-    <t>D20 DX33</t>
-  </si>
-  <si>
-    <t>D20 HR90</t>
-  </si>
-  <si>
-    <t>A94 NY67</t>
-  </si>
-  <si>
-    <t>P75 AW62</t>
-  </si>
-  <si>
-    <t>D18 N6X8</t>
-  </si>
-  <si>
-    <t>A85 X297</t>
-  </si>
-  <si>
-    <t>P25 HX47</t>
-  </si>
-  <si>
-    <t>A85 W279</t>
-  </si>
-  <si>
-    <t>C15 E4H2</t>
-  </si>
-  <si>
-    <t>D11 K4H6</t>
-  </si>
-  <si>
-    <t>D05 AK80</t>
-  </si>
-  <si>
-    <t>D11 FN80</t>
-  </si>
-  <si>
-    <t>W23 Y049</t>
-  </si>
-  <si>
-    <t>D13 DY60</t>
-  </si>
-  <si>
-    <t>F31 EY17</t>
-  </si>
-  <si>
-    <t>K67 A9K2</t>
-  </si>
-  <si>
-    <t>X91 D32T</t>
-  </si>
-  <si>
-    <t>A98 Y3C6</t>
-  </si>
-  <si>
-    <t>D6W EA33</t>
-  </si>
-  <si>
-    <t>W23 EF21</t>
-  </si>
-  <si>
-    <t>D18 E519</t>
-  </si>
-  <si>
-    <t>W91 XV20</t>
-  </si>
-  <si>
-    <t>R42 YV30</t>
-  </si>
-  <si>
-    <t>V94 VHH7</t>
-  </si>
-  <si>
-    <t>D12 F2P2</t>
-  </si>
-  <si>
-    <t>T23 X7T8</t>
-  </si>
-  <si>
-    <t>D14 VP98</t>
-  </si>
-  <si>
-    <t>A98 YH04</t>
-  </si>
-  <si>
-    <t>V42 CP57</t>
-  </si>
-  <si>
-    <t>T45 TW01</t>
-  </si>
-  <si>
-    <t>V93 Y5X6</t>
-  </si>
-  <si>
-    <t>X91 TP95</t>
-  </si>
-  <si>
-    <t>V94 DC6Y</t>
-  </si>
-  <si>
-    <t>D04 NX95</t>
-  </si>
-  <si>
-    <t>H91 DD0V</t>
-  </si>
-  <si>
-    <t>D05 H5X7</t>
-  </si>
-  <si>
-    <t>W91 F8C3</t>
+    <t>250</t>
+  </si>
+  <si>
+    <t>C15 N5WP</t>
+  </si>
+  <si>
+    <t>D24 X4HK</t>
+  </si>
+  <si>
+    <t>D11 RT1H</t>
+  </si>
+  <si>
+    <t>Y21 F7P6</t>
+  </si>
+  <si>
+    <t>H18 N960</t>
+  </si>
+  <si>
+    <t>E45 XA99</t>
+  </si>
+  <si>
+    <t>D15 KR9X</t>
+  </si>
+  <si>
+    <t>D15 XYH9</t>
+  </si>
+  <si>
+    <t>R93 DA09</t>
+  </si>
+  <si>
+    <t>D16 X253</t>
+  </si>
+  <si>
+    <t>D24 RD2P</t>
+  </si>
+  <si>
+    <t>X42 RP40</t>
+  </si>
+  <si>
+    <t>H62 F243</t>
+  </si>
+  <si>
+    <t>V94 DN82</t>
+  </si>
+  <si>
+    <t>Y14 RX90</t>
+  </si>
+  <si>
+    <t>P67 E838</t>
+  </si>
+  <si>
+    <t>W23 T4A4</t>
+  </si>
+  <si>
+    <t>D15 N6WV</t>
+  </si>
+  <si>
+    <t>A94 WT38</t>
+  </si>
+  <si>
+    <t>D18 RW32</t>
+  </si>
+  <si>
+    <t>T12 EYA7</t>
+  </si>
+  <si>
+    <t>W91 VR6Y</t>
+  </si>
+  <si>
+    <t>A63 D348</t>
+  </si>
+  <si>
+    <t>K78 P5X6</t>
+  </si>
+  <si>
+    <t>R51 CX74</t>
+  </si>
+  <si>
+    <t>N37 K297</t>
+  </si>
+  <si>
+    <t>D16 TX66</t>
+  </si>
+  <si>
+    <t>K34 K250</t>
+  </si>
+  <si>
+    <t>D24 X7K7</t>
+  </si>
+  <si>
+    <t>D06 P6C0</t>
+  </si>
+  <si>
+    <t>R93 V3A0</t>
+  </si>
+  <si>
+    <t>D03 W962</t>
+  </si>
+  <si>
+    <t>D04 C3K0</t>
+  </si>
+  <si>
+    <t>D16 Y054</t>
+  </si>
+  <si>
+    <t>W91 P6V0</t>
+  </si>
+  <si>
+    <t>A63 HV00</t>
+  </si>
+  <si>
+    <t>D05 FR84</t>
+  </si>
+  <si>
+    <t>D07 H6R6</t>
+  </si>
+  <si>
+    <t>D6W W589</t>
+  </si>
+  <si>
+    <t>D05 DW99</t>
+  </si>
+  <si>
+    <t>A67 VW98</t>
+  </si>
+  <si>
+    <t>D03 EK53</t>
+  </si>
+  <si>
+    <t>T23 W5F6</t>
+  </si>
+  <si>
+    <t>X91 FC9V</t>
+  </si>
+  <si>
+    <t>Y14 DK16</t>
+  </si>
+  <si>
+    <t>A92 W5P1</t>
+  </si>
+  <si>
+    <t>D12 H5F1</t>
+  </si>
+  <si>
+    <t>D05 F752</t>
+  </si>
+  <si>
+    <t>W12 EP26</t>
+  </si>
+  <si>
+    <t>D20 X285</t>
+  </si>
+  <si>
+    <t>T45 WD32</t>
+  </si>
+  <si>
+    <t>A83 HC64</t>
+  </si>
+  <si>
+    <t>D14 T2C6</t>
+  </si>
+  <si>
+    <t>W91 NH7D</t>
+  </si>
+  <si>
+    <t>D05 KN50</t>
+  </si>
+  <si>
+    <t>X91 N8YY</t>
+  </si>
+  <si>
+    <t>W23 A8N9</t>
+  </si>
+  <si>
+    <t>A63 N592</t>
+  </si>
+  <si>
+    <t>D05 P895</t>
+  </si>
+  <si>
+    <t>D07 K094</t>
+  </si>
+  <si>
+    <t>Y35 X003</t>
+  </si>
+  <si>
+    <t>R93 HN83</t>
+  </si>
+  <si>
+    <t>F26 Y1K1</t>
+  </si>
+  <si>
+    <t>V95 PPA9</t>
+  </si>
+  <si>
+    <t>R95 D9H9</t>
+  </si>
+  <si>
+    <t>K36 H799</t>
+  </si>
+  <si>
+    <t>W12 TK57</t>
+  </si>
+  <si>
+    <t>P25 F766</t>
+  </si>
+  <si>
+    <t>P43 ET02</t>
+  </si>
+  <si>
+    <t>K78 H0A8</t>
+  </si>
+  <si>
+    <t>D15 TK27</t>
+  </si>
+  <si>
+    <t>D13 R2V3</t>
+  </si>
+  <si>
+    <t>K78 F8R9</t>
+  </si>
+  <si>
+    <t>K36 WR64</t>
+  </si>
+  <si>
+    <t>V35 RX22</t>
+  </si>
+  <si>
+    <t>V93 D7N8</t>
+  </si>
+  <si>
+    <t>A94 Y9D3</t>
+  </si>
+  <si>
+    <t>D24 PX88</t>
+  </si>
+  <si>
+    <t>D15 HDY0</t>
+  </si>
+  <si>
+    <t>R56 FX90</t>
+  </si>
+  <si>
+    <t>D22 K461</t>
+  </si>
+  <si>
+    <t>V94 ECR6</t>
+  </si>
+  <si>
+    <t>A98 HR66</t>
+  </si>
+  <si>
+    <t>D11 A6Y6</t>
+  </si>
+  <si>
+    <t>V94 RF3X</t>
+  </si>
+  <si>
+    <t>D16 P7N1</t>
+  </si>
+  <si>
+    <t>D09 V678</t>
+  </si>
+  <si>
+    <t>A83 E395</t>
+  </si>
+  <si>
+    <t>A63 XR22</t>
+  </si>
+  <si>
+    <t>H91 P0K6</t>
+  </si>
+  <si>
+    <t>D16 CR98</t>
+  </si>
+  <si>
+    <t>R93 X2E6</t>
+  </si>
+  <si>
+    <t>W23 H5Y2</t>
+  </si>
+  <si>
+    <t>K36 XH61</t>
+  </si>
+  <si>
+    <t>V94 33X2</t>
+  </si>
+  <si>
+    <t>A92 AH7V</t>
+  </si>
+  <si>
+    <t>K56 VX08</t>
+  </si>
+  <si>
+    <t>A85 TD29</t>
+  </si>
+  <si>
+    <t>P61 T228</t>
+  </si>
+  <si>
+    <t>V92 XKF4</t>
   </si>
 </sst>
 </file>
@@ -472,7 +544,38 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -808,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q111" sqref="Q111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -959,37 +1062,49 @@
         <v>35</v>
       </c>
       <c r="F2">
-        <v>300000</v>
+        <v>195000</v>
       </c>
       <c r="G2">
-        <v>40000</v>
+        <v>39000</v>
+      </c>
+      <c r="H2">
+        <v>6500</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
       </c>
       <c r="K2">
-        <v>1968</v>
+        <v>2005</v>
       </c>
       <c r="L2">
         <v>5</v>
       </c>
       <c r="M2">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
       </c>
       <c r="U2" t="s">
         <v>34</v>
@@ -1001,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="AE2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
@@ -1019,40 +1134,43 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>192086</v>
+        <v>285000</v>
       </c>
       <c r="G3">
-        <v>38417</v>
+        <v>40000</v>
       </c>
       <c r="H3">
-        <v>2300</v>
+        <v>6689</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
       <c r="K3">
-        <v>1993</v>
+        <v>2019</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1073,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="AE3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.35">
@@ -1091,34 +1209,43 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4">
-        <v>375000</v>
+        <v>200000</v>
       </c>
       <c r="G4">
-        <v>40000</v>
+        <v>75000</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>9375</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
       </c>
       <c r="K4">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="L4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M4">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1126,6 +1253,9 @@
       <c r="S4" t="s">
         <v>34</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
       <c r="U4" t="s">
         <v>34</v>
       </c>
@@ -1136,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="AE4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.35">
@@ -1157,38 +1287,50 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>170000</v>
+        <v>240000</v>
       </c>
       <c r="G5">
         <v>30000</v>
       </c>
+      <c r="H5">
+        <v>2500</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
       <c r="K5">
-        <v>1980</v>
+        <v>2006</v>
       </c>
       <c r="L5">
         <v>5</v>
       </c>
       <c r="M5">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R5">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="S5" t="s">
         <v>34</v>
       </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
       <c r="U5" t="s">
         <v>34</v>
       </c>
@@ -1199,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="AE5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.35">
@@ -1217,34 +1359,43 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6">
-        <v>160000</v>
+        <v>300000</v>
       </c>
       <c r="G6">
-        <v>60000</v>
+        <v>40000</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>5600</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
       </c>
       <c r="K6">
-        <v>1998</v>
+        <v>2004</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M6">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="N6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1252,6 +1403,9 @@
       <c r="S6" t="s">
         <v>34</v>
       </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
       <c r="U6" t="s">
         <v>34</v>
       </c>
@@ -1260,6 +1414,9 @@
       </c>
       <c r="W6">
         <v>0</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">
@@ -1280,43 +1437,46 @@
         <v>35</v>
       </c>
       <c r="F7">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="G7">
-        <v>55000</v>
+        <v>45000</v>
       </c>
       <c r="H7">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
       <c r="K7">
-        <v>1980</v>
+        <v>2010</v>
       </c>
       <c r="L7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="N7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="S7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1331,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="AE7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.35">
@@ -1352,31 +1512,40 @@
         <v>35</v>
       </c>
       <c r="F8">
-        <v>230000</v>
+        <v>216000</v>
       </c>
       <c r="G8">
-        <v>35000</v>
+        <v>50000</v>
+      </c>
+      <c r="H8">
+        <v>6200</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>1970</v>
+        <v>1996</v>
       </c>
       <c r="L8">
         <v>5</v>
       </c>
       <c r="M8">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="N8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1384,17 +1553,20 @@
       <c r="S8" t="s">
         <v>34</v>
       </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
       <c r="U8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.35">
@@ -1415,31 +1587,40 @@
         <v>35</v>
       </c>
       <c r="F9">
-        <v>230000</v>
+        <v>330000</v>
       </c>
       <c r="G9">
-        <v>40000</v>
+        <v>55000</v>
+      </c>
+      <c r="H9">
+        <v>11500</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>1930</v>
+        <v>1955</v>
       </c>
       <c r="L9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1447,6 +1628,9 @@
       <c r="S9" t="s">
         <v>34</v>
       </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
       <c r="U9" t="s">
         <v>34</v>
       </c>
@@ -1457,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="AE9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.35">
@@ -1478,37 +1662,49 @@
         <v>35</v>
       </c>
       <c r="F10">
-        <v>310000</v>
+        <v>317000</v>
       </c>
       <c r="G10">
-        <v>40000</v>
+        <v>30000</v>
+      </c>
+      <c r="H10">
+        <v>3500</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>1964</v>
+        <v>2020</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M10">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="N10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
       </c>
       <c r="U10" t="s">
         <v>34</v>
@@ -1520,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="AE10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.35">
@@ -1538,34 +1734,43 @@
         <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11">
-        <v>264448</v>
+        <v>300000</v>
       </c>
       <c r="G11">
-        <v>61706</v>
+        <v>15000</v>
+      </c>
+      <c r="H11">
+        <v>300</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>38</v>
       </c>
       <c r="K11">
-        <v>1965</v>
+        <v>1980</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="N11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P11" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1573,6 +1778,9 @@
       <c r="S11" t="s">
         <v>34</v>
       </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
       <c r="U11" t="s">
         <v>34</v>
       </c>
@@ -1581,6 +1789,9 @@
       </c>
       <c r="W11">
         <v>0</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.35">
@@ -1598,40 +1809,43 @@
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12">
-        <v>580000</v>
+        <v>350000</v>
       </c>
       <c r="G12">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="H12">
-        <v>14370</v>
+        <v>20000</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
       <c r="K12">
-        <v>2009</v>
+        <v>2020</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1650,6 +1864,9 @@
       </c>
       <c r="W12">
         <v>0</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.35">
@@ -1670,31 +1887,40 @@
         <v>35</v>
       </c>
       <c r="F13">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="G13">
-        <v>50000</v>
+        <v>80000</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>8000</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
       </c>
       <c r="K13">
-        <v>2003</v>
+        <v>2016</v>
       </c>
       <c r="L13">
         <v>5</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="N13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1702,6 +1928,9 @@
       <c r="S13" t="s">
         <v>34</v>
       </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
       <c r="U13" t="s">
         <v>34</v>
       </c>
@@ -1712,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="AE13" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.35">
@@ -1733,40 +1962,43 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="G14">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="H14">
-        <v>3100</v>
+        <v>2500</v>
       </c>
       <c r="I14">
         <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
       </c>
       <c r="K14">
         <v>2006</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R14">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="S14" t="s">
         <v>34</v>
@@ -1782,6 +2014,9 @@
       </c>
       <c r="W14">
         <v>0</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.35">
@@ -1802,31 +2037,40 @@
         <v>35</v>
       </c>
       <c r="F15">
-        <v>450000</v>
+        <v>250000</v>
       </c>
       <c r="G15">
-        <v>200000</v>
+        <v>40000</v>
+      </c>
+      <c r="H15">
+        <v>2900</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>1975</v>
+        <v>1980</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M15">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="N15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P15" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -1834,6 +2078,9 @@
       <c r="S15" t="s">
         <v>34</v>
       </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
       <c r="U15" t="s">
         <v>34</v>
       </c>
@@ -1844,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="AE15" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.35">
@@ -1862,34 +2109,43 @@
         <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16">
-        <v>250000</v>
+        <v>265000</v>
       </c>
       <c r="G16">
-        <v>40000</v>
+        <v>20000</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1400</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
       </c>
       <c r="K16">
-        <v>1950</v>
+        <v>2005</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="N16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -1897,6 +2153,9 @@
       <c r="S16" t="s">
         <v>34</v>
       </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
       <c r="U16" t="s">
         <v>34</v>
       </c>
@@ -1907,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="AE16" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.35">
@@ -1928,37 +2187,49 @@
         <v>35</v>
       </c>
       <c r="F17">
-        <v>160000</v>
+        <v>409100</v>
       </c>
       <c r="G17">
         <v>30000</v>
       </c>
+      <c r="H17">
+        <v>6500</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
       <c r="K17">
-        <v>1930</v>
+        <v>2018</v>
       </c>
       <c r="L17">
         <v>5</v>
       </c>
       <c r="M17">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="N17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P17" t="s">
         <v>34</v>
       </c>
       <c r="Q17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="S17" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
       </c>
       <c r="U17" t="s">
         <v>34</v>
@@ -1970,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="AE17" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.35">
@@ -1991,31 +2262,40 @@
         <v>35</v>
       </c>
       <c r="F18">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="G18">
-        <v>69000</v>
+        <v>50000</v>
+      </c>
+      <c r="H18">
+        <v>4000</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
       </c>
       <c r="K18">
-        <v>1982</v>
+        <v>2005</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M18">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="N18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2023,6 +2303,9 @@
       <c r="S18" t="s">
         <v>34</v>
       </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
       <c r="U18" t="s">
         <v>34</v>
       </c>
@@ -2033,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="AE18" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.35">
@@ -2051,34 +2334,43 @@
         <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>270000</v>
       </c>
       <c r="G19">
-        <v>23000</v>
+        <v>54000</v>
+      </c>
+      <c r="H19">
+        <v>3000</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>38</v>
       </c>
       <c r="K19">
-        <v>2005</v>
+        <v>1975</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="N19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2086,6 +2378,9 @@
       <c r="S19" t="s">
         <v>34</v>
       </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
       <c r="U19" t="s">
         <v>34</v>
       </c>
@@ -2096,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="AE19" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.35">
@@ -2117,37 +2412,40 @@
         <v>35</v>
       </c>
       <c r="F20">
-        <v>323951</v>
+        <v>308925</v>
       </c>
       <c r="G20">
-        <v>46279</v>
+        <v>61785</v>
       </c>
       <c r="H20">
-        <v>4478</v>
+        <v>4000</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
+      <c r="J20" t="s">
+        <v>38</v>
+      </c>
       <c r="K20">
-        <v>1971</v>
+        <v>1963</v>
       </c>
       <c r="L20">
         <v>5</v>
       </c>
       <c r="M20">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="N20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2168,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="AE20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.35">
@@ -2189,31 +2487,40 @@
         <v>35</v>
       </c>
       <c r="F21">
-        <v>200000</v>
+        <v>350000</v>
       </c>
       <c r="G21">
-        <v>40000</v>
+        <v>50000</v>
+      </c>
+      <c r="H21">
+        <v>10650</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>38</v>
       </c>
       <c r="K21">
-        <v>1994</v>
+        <v>1986</v>
       </c>
       <c r="L21">
         <v>6</v>
       </c>
       <c r="M21">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="N21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2221,6 +2528,9 @@
       <c r="S21" t="s">
         <v>34</v>
       </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
       <c r="U21" t="s">
         <v>34</v>
       </c>
@@ -2229,6 +2539,9 @@
       </c>
       <c r="W21">
         <v>0</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.35">
@@ -2249,31 +2562,40 @@
         <v>35</v>
       </c>
       <c r="F22">
-        <v>850000</v>
+        <v>250000</v>
       </c>
       <c r="G22">
-        <v>100000</v>
+        <v>50000</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>5900</v>
+      </c>
+      <c r="J22" t="s">
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="L22">
         <v>5</v>
       </c>
       <c r="M22">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P22" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -2281,6 +2603,9 @@
       <c r="S22" t="s">
         <v>34</v>
       </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
       <c r="U22" t="s">
         <v>34</v>
       </c>
@@ -2291,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="AE22" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.35">
@@ -2309,34 +2634,43 @@
         <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23">
         <v>300000</v>
       </c>
       <c r="G23">
-        <v>60000</v>
+        <v>40000</v>
+      </c>
+      <c r="H23">
+        <v>2500</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="L23">
         <v>5</v>
       </c>
       <c r="M23">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="N23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -2344,6 +2678,9 @@
       <c r="S23" t="s">
         <v>34</v>
       </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
       <c r="U23" t="s">
         <v>34</v>
       </c>
@@ -2354,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="AE23" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.35">
@@ -2375,31 +2712,40 @@
         <v>35</v>
       </c>
       <c r="F24">
-        <v>290000</v>
+        <v>280000</v>
       </c>
       <c r="G24">
-        <v>50000</v>
+        <v>60000</v>
+      </c>
+      <c r="H24">
+        <v>11420</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>1998</v>
+        <v>1976</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M24">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="N24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P24" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q24" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -2407,6 +2753,9 @@
       <c r="S24" t="s">
         <v>34</v>
       </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
       <c r="U24" t="s">
         <v>34</v>
       </c>
@@ -2417,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="AE24" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.35">
@@ -2438,31 +2787,40 @@
         <v>35</v>
       </c>
       <c r="F25">
-        <v>200000</v>
+        <v>420000</v>
       </c>
       <c r="G25">
-        <v>30000</v>
+        <v>25000</v>
+      </c>
+      <c r="H25">
+        <v>4500</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>1992</v>
+        <v>2018</v>
       </c>
       <c r="L25">
         <v>5</v>
       </c>
       <c r="M25">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P25" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -2470,6 +2828,9 @@
       <c r="S25" t="s">
         <v>34</v>
       </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
       <c r="U25" t="s">
         <v>34</v>
       </c>
@@ -2480,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="AE25" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.35">
@@ -2498,41 +2859,53 @@
         <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F26">
-        <v>165000</v>
+        <v>185000</v>
       </c>
       <c r="G26">
-        <v>40000</v>
+        <v>30000</v>
+      </c>
+      <c r="H26">
+        <v>3250</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>1960</v>
+        <v>2017</v>
       </c>
       <c r="L26">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="N26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="S26" t="s">
         <v>34</v>
       </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
       <c r="U26" t="s">
         <v>34</v>
       </c>
@@ -2543,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="AE26" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.35">
@@ -2564,46 +2937,49 @@
         <v>35</v>
       </c>
       <c r="F27">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="G27">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="H27">
-        <v>6650</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>3200</v>
+      </c>
+      <c r="J27" t="s">
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>1973</v>
+        <v>2006</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M27">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="N27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P27" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="U27" t="s">
         <v>34</v>
@@ -2615,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="AE27" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.35">
@@ -2636,37 +3012,49 @@
         <v>35</v>
       </c>
       <c r="F28">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="G28">
-        <v>58650</v>
+        <v>120000</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>10000</v>
+      </c>
+      <c r="J28" t="s">
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>2003</v>
+        <v>1976</v>
       </c>
       <c r="L28">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M28">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P28" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R28">
         <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
       </c>
       <c r="U28" t="s">
         <v>34</v>
@@ -2676,6 +3064,9 @@
       </c>
       <c r="W28">
         <v>0</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.35">
@@ -2693,40 +3084,52 @@
         <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F29">
-        <v>400000</v>
+        <v>280000</v>
       </c>
       <c r="G29">
-        <v>100000</v>
+        <v>50000</v>
+      </c>
+      <c r="H29">
+        <v>6000</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>38</v>
       </c>
       <c r="K29">
-        <v>2010</v>
+        <v>1912</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M29">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="N29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q29" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="R29">
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
       </c>
       <c r="U29" t="s">
         <v>34</v>
@@ -2738,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="AE29" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.35">
@@ -2756,34 +3159,43 @@
         <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F30">
-        <v>197400</v>
+        <v>160000</v>
       </c>
       <c r="G30">
-        <v>15000</v>
+        <v>71000</v>
+      </c>
+      <c r="H30">
+        <v>38610</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>38</v>
       </c>
       <c r="K30">
-        <v>1998</v>
+        <v>2004</v>
       </c>
       <c r="L30">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="M30">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="N30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q30" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -2791,6 +3203,9 @@
       <c r="S30" t="s">
         <v>34</v>
       </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
       <c r="U30" t="s">
         <v>34</v>
       </c>
@@ -2801,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="AE30" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.35">
@@ -2819,61 +3234,64 @@
         <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F31">
-        <v>450000</v>
+        <v>350000</v>
       </c>
       <c r="G31">
-        <v>81000</v>
+        <v>75000</v>
       </c>
       <c r="H31">
-        <v>7800</v>
+        <v>4900</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
+      <c r="J31" t="s">
+        <v>38</v>
+      </c>
       <c r="K31">
-        <v>1975</v>
+        <v>1925</v>
       </c>
       <c r="L31">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M31">
+        <v>63</v>
+      </c>
+      <c r="N31" t="s">
+        <v>41</v>
+      </c>
+      <c r="O31" t="s">
+        <v>41</v>
+      </c>
+      <c r="P31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>45</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31" t="s">
+        <v>34</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31" t="s">
+        <v>34</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="s">
         <v>78</v>
-      </c>
-      <c r="N31" t="s">
-        <v>38</v>
-      </c>
-      <c r="O31" t="s">
-        <v>38</v>
-      </c>
-      <c r="P31" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>41</v>
-      </c>
-      <c r="R31">
-        <v>250</v>
-      </c>
-      <c r="S31" t="s">
-        <v>34</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31" t="s">
-        <v>34</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.35">
@@ -2891,34 +3309,43 @@
         <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G32">
-        <v>15000</v>
+        <v>25000</v>
+      </c>
+      <c r="H32">
+        <v>1200</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>38</v>
       </c>
       <c r="K32">
-        <v>1974</v>
+        <v>2001</v>
       </c>
       <c r="L32">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="N32" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O32" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P32" t="s">
         <v>34</v>
       </c>
       <c r="Q32" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -2926,6 +3353,9 @@
       <c r="S32" t="s">
         <v>34</v>
       </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
       <c r="U32" t="s">
         <v>34</v>
       </c>
@@ -2934,6 +3364,9 @@
       </c>
       <c r="W32">
         <v>0</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.35">
@@ -2954,37 +3387,40 @@
         <v>35</v>
       </c>
       <c r="F33">
-        <v>250000</v>
+        <v>327000</v>
       </c>
       <c r="G33">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="H33">
-        <v>4492</v>
+        <v>6000</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
+      <c r="J33" t="s">
+        <v>38</v>
+      </c>
       <c r="K33">
-        <v>1961</v>
+        <v>1905</v>
       </c>
       <c r="L33">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M33">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="N33" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O33" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P33" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R33">
         <v>0</v>
@@ -3005,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="AE33" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.35">
@@ -3026,37 +3462,49 @@
         <v>36</v>
       </c>
       <c r="F34">
-        <v>225000</v>
+        <v>200000</v>
       </c>
       <c r="G34">
-        <v>57000</v>
+        <v>46279</v>
+      </c>
+      <c r="H34">
+        <v>3000</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>38</v>
       </c>
       <c r="K34">
-        <v>1940</v>
+        <v>1915</v>
       </c>
       <c r="L34">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M34">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="N34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P34" t="s">
         <v>34</v>
       </c>
       <c r="Q34" t="s">
+        <v>45</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34" t="s">
         <v>43</v>
       </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34" t="s">
-        <v>34</v>
+      <c r="T34">
+        <v>0</v>
       </c>
       <c r="U34" t="s">
         <v>34</v>
@@ -3066,6 +3514,9 @@
       </c>
       <c r="W34">
         <v>0</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.35">
@@ -3083,34 +3534,43 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F35">
-        <v>250000</v>
+        <v>430000</v>
       </c>
       <c r="G35">
-        <v>50000</v>
+        <v>40000</v>
+      </c>
+      <c r="H35">
+        <v>4950</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>38</v>
       </c>
       <c r="K35">
-        <v>1958</v>
+        <v>1984</v>
       </c>
       <c r="L35">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="N35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P35" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -3118,6 +3578,9 @@
       <c r="S35" t="s">
         <v>34</v>
       </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
       <c r="U35" t="s">
         <v>34</v>
       </c>
@@ -3128,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="AE35" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.35">
@@ -3146,34 +3609,43 @@
         <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F36">
-        <v>300000</v>
+        <v>170000</v>
       </c>
       <c r="G36">
-        <v>23000</v>
+        <v>15000</v>
+      </c>
+      <c r="H36">
+        <v>6000</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>38</v>
       </c>
       <c r="K36">
-        <v>1948</v>
+        <v>1985</v>
       </c>
       <c r="L36">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M36">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N36" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O36" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P36" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -3181,6 +3653,9 @@
       <c r="S36" t="s">
         <v>34</v>
       </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
       <c r="U36" t="s">
         <v>34</v>
       </c>
@@ -3191,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="AE36" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.35">
@@ -3209,34 +3684,43 @@
         <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F37">
-        <v>330000</v>
+        <v>131000</v>
       </c>
       <c r="G37">
-        <v>30000</v>
+        <v>25000</v>
+      </c>
+      <c r="H37">
+        <v>5200</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>38</v>
       </c>
       <c r="K37">
-        <v>1981</v>
+        <v>1915</v>
       </c>
       <c r="L37">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M37">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N37" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O37" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P37" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R37">
         <v>0</v>
@@ -3244,6 +3728,9 @@
       <c r="S37" t="s">
         <v>34</v>
       </c>
+      <c r="T37">
+        <v>2000</v>
+      </c>
       <c r="U37" t="s">
         <v>34</v>
       </c>
@@ -3254,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="AE37" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.35">
@@ -3272,40 +3759,52 @@
         <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F38">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="G38">
-        <v>50000</v>
+        <v>75000</v>
+      </c>
+      <c r="H38">
+        <v>3900</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>38</v>
       </c>
       <c r="K38">
-        <v>1950</v>
+        <v>1960</v>
       </c>
       <c r="L38">
         <v>12</v>
       </c>
       <c r="M38">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="N38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O38" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P38" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R38">
         <v>0</v>
       </c>
       <c r="S38" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
       </c>
       <c r="U38" t="s">
         <v>34</v>
@@ -3317,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="AE38" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.35">
@@ -3338,37 +3837,49 @@
         <v>35</v>
       </c>
       <c r="F39">
-        <v>343812</v>
+        <v>242429</v>
       </c>
       <c r="G39">
-        <v>72731</v>
+        <v>40640</v>
+      </c>
+      <c r="H39">
+        <v>2945</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>38</v>
       </c>
       <c r="K39">
-        <v>1900</v>
+        <v>1902</v>
       </c>
       <c r="L39">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M39">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P39" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R39">
         <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
       </c>
       <c r="U39" t="s">
         <v>34</v>
@@ -3380,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="AE39" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.35">
@@ -3398,40 +3909,52 @@
         <v>34</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F40">
-        <v>150000</v>
+        <v>250000</v>
       </c>
       <c r="G40">
-        <v>15000</v>
+        <v>50000</v>
+      </c>
+      <c r="H40">
+        <v>3700</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>38</v>
       </c>
       <c r="K40">
-        <v>1991</v>
+        <v>1938</v>
       </c>
       <c r="L40">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="M40">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="N40" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O40" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P40" t="s">
         <v>34</v>
       </c>
       <c r="Q40" t="s">
+        <v>45</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40" t="s">
         <v>43</v>
       </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40" t="s">
-        <v>34</v>
+      <c r="T40">
+        <v>0</v>
       </c>
       <c r="U40" t="s">
         <v>34</v>
@@ -3441,6 +3964,9 @@
       </c>
       <c r="W40">
         <v>0</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.35">
@@ -3461,43 +3987,46 @@
         <v>35</v>
       </c>
       <c r="F41">
-        <v>550000</v>
+        <v>300000</v>
       </c>
       <c r="G41">
-        <v>110000</v>
+        <v>27000</v>
       </c>
       <c r="H41">
-        <v>22695</v>
+        <v>20000</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
+      <c r="J41" t="s">
+        <v>38</v>
+      </c>
       <c r="K41">
-        <v>1900</v>
+        <v>1980</v>
       </c>
       <c r="L41">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M41">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="N41" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O41" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P41" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R41">
         <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T41">
         <v>0</v>
@@ -3512,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="AE41" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.35">
@@ -3530,34 +4059,43 @@
         <v>34</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F42">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>15000</v>
+        <v>50000</v>
+      </c>
+      <c r="H42">
+        <v>5800</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>38</v>
       </c>
       <c r="K42">
-        <v>1906</v>
+        <v>1919</v>
       </c>
       <c r="L42">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="N42" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O42" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P42" t="s">
         <v>34</v>
       </c>
       <c r="Q42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R42">
         <v>0</v>
@@ -3565,6 +4103,9 @@
       <c r="S42" t="s">
         <v>34</v>
       </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
       <c r="U42" t="s">
         <v>34</v>
       </c>
@@ -3575,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="AE42" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.35">
@@ -3593,40 +4134,52 @@
         <v>34</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F43">
-        <v>250000</v>
+        <v>650000</v>
       </c>
       <c r="G43">
-        <v>40000</v>
+        <v>65000</v>
+      </c>
+      <c r="H43">
+        <v>34999</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>38</v>
       </c>
       <c r="K43">
-        <v>1997</v>
+        <v>1930</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M43">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N43" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O43" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P43" t="s">
         <v>34</v>
       </c>
       <c r="Q43" t="s">
+        <v>45</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43" t="s">
         <v>43</v>
       </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43" t="s">
-        <v>34</v>
+      <c r="T43">
+        <v>0</v>
       </c>
       <c r="U43" t="s">
         <v>34</v>
@@ -3636,6 +4189,9 @@
       </c>
       <c r="W43">
         <v>0</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.35">
@@ -3653,7 +4209,7 @@
         <v>34</v>
       </c>
       <c r="E44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F44">
         <v>220000</v>
@@ -3661,26 +4217,35 @@
       <c r="G44">
         <v>30000</v>
       </c>
+      <c r="H44">
+        <v>4928</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>38</v>
+      </c>
       <c r="K44">
-        <v>2003</v>
+        <v>1965</v>
       </c>
       <c r="L44">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M44">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="N44" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O44" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P44" t="s">
         <v>34</v>
       </c>
       <c r="Q44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R44">
         <v>0</v>
@@ -3688,6 +4253,9 @@
       <c r="S44" t="s">
         <v>34</v>
       </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
       <c r="U44" t="s">
         <v>34</v>
       </c>
@@ -3696,6 +4264,9 @@
       </c>
       <c r="W44">
         <v>0</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.35">
@@ -3716,37 +4287,40 @@
         <v>36</v>
       </c>
       <c r="F45">
-        <v>550000</v>
+        <v>200000</v>
       </c>
       <c r="G45">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="H45">
-        <v>9820</v>
+        <v>4000</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
+      <c r="J45" t="s">
+        <v>38</v>
+      </c>
       <c r="K45">
-        <v>1890</v>
+        <v>1986</v>
       </c>
       <c r="L45">
         <v>11</v>
       </c>
       <c r="M45">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="N45" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O45" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P45" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R45">
         <v>0</v>
@@ -3765,6 +4339,9 @@
       </c>
       <c r="W45">
         <v>0</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.35">
@@ -3773,7 +4350,7 @@
         <v>100000044</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
         <v>33</v>
@@ -3785,28 +4362,61 @@
         <v>36</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>275000</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>41000</v>
+      </c>
+      <c r="H46">
+        <v>3640</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>38</v>
+      </c>
+      <c r="K46">
+        <v>1998</v>
+      </c>
+      <c r="L46">
+        <v>5</v>
       </c>
       <c r="M46">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="N46" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O46" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P46" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q46" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="R46" t="s">
+        <v>47</v>
       </c>
       <c r="S46" t="s">
         <v>34</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46" t="s">
+        <v>34</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.35">
@@ -3815,7 +4425,7 @@
         <v>100000045</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
         <v>33</v>
@@ -3827,37 +4437,49 @@
         <v>36</v>
       </c>
       <c r="F47">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="G47">
-        <v>30000</v>
+        <v>50000</v>
+      </c>
+      <c r="H47">
+        <v>5000</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>38</v>
       </c>
       <c r="K47">
-        <v>1960</v>
+        <v>2005</v>
       </c>
       <c r="L47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M47">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="N47" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O47" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P47" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q47" t="s">
-        <v>43</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="R47" t="s">
+        <v>47</v>
       </c>
       <c r="S47" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
       </c>
       <c r="U47" t="s">
         <v>34</v>
@@ -3869,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="AE47" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.35">
@@ -3878,7 +4500,7 @@
         <v>100000046</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C48" t="s">
         <v>33</v>
@@ -3887,43 +4509,46 @@
         <v>34</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F48">
-        <v>450000</v>
+        <v>168000</v>
       </c>
       <c r="G48">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H48">
-        <v>18545</v>
+        <v>1500</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
+      <c r="J48" t="s">
+        <v>38</v>
+      </c>
       <c r="K48">
-        <v>1997</v>
+        <v>1960</v>
       </c>
       <c r="L48">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M48">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="N48" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O48" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P48" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q48" t="s">
-        <v>43</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="R48" t="s">
+        <v>47</v>
       </c>
       <c r="S48" t="s">
         <v>34</v>
@@ -3941,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="AE48" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.35">
@@ -3950,7 +4575,7 @@
         <v>100000047</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C49" t="s">
         <v>33</v>
@@ -3959,46 +4584,49 @@
         <v>34</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F49">
-        <v>625000</v>
+        <v>450000</v>
       </c>
       <c r="G49">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="H49">
-        <v>2115</v>
+        <v>31500</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
+      <c r="J49" t="s">
+        <v>40</v>
+      </c>
       <c r="K49">
-        <v>1872</v>
+        <v>1950</v>
       </c>
       <c r="L49">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M49">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N49" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O49" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P49" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q49" t="s">
-        <v>43</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="R49" t="s">
+        <v>47</v>
       </c>
       <c r="S49" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T49">
         <v>0</v>
@@ -4013,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="AE49" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.35">
@@ -4022,7 +4650,7 @@
         <v>100000048</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C50" t="s">
         <v>33</v>
@@ -4031,46 +4659,49 @@
         <v>34</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F50">
-        <v>270000</v>
+        <v>337000</v>
       </c>
       <c r="G50">
-        <v>100000</v>
+        <v>101000</v>
       </c>
       <c r="H50">
-        <v>3500</v>
+        <v>7300</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
+      <c r="J50" t="s">
+        <v>38</v>
+      </c>
       <c r="K50">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="L50">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M50">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="N50" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O50" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P50" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q50" t="s">
-        <v>43</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="R50" t="s">
+        <v>47</v>
       </c>
       <c r="S50" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T50">
         <v>0</v>
@@ -4085,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="AE50" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.35">
@@ -4094,7 +4725,7 @@
         <v>100000049</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C51" t="s">
         <v>33</v>
@@ -4106,38 +4737,50 @@
         <v>36</v>
       </c>
       <c r="F51">
-        <v>150000</v>
+        <v>160000</v>
       </c>
       <c r="G51">
-        <v>15000</v>
+        <v>30000</v>
+      </c>
+      <c r="H51">
+        <v>3000</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>38</v>
       </c>
       <c r="K51">
-        <v>1975</v>
+        <v>1990</v>
       </c>
       <c r="L51">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M51">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="N51" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O51" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P51" t="s">
         <v>34</v>
       </c>
       <c r="Q51" t="s">
-        <v>43</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="R51" t="s">
+        <v>47</v>
       </c>
       <c r="S51" t="s">
         <v>34</v>
       </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
       <c r="U51" t="s">
         <v>34</v>
       </c>
@@ -4148,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="AE51" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.35">
@@ -4157,7 +4800,7 @@
         <v>100000050</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C52" t="s">
         <v>33</v>
@@ -4169,37 +4812,49 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>230000</v>
+        <v>380000</v>
       </c>
       <c r="G52">
-        <v>15000</v>
+        <v>76000</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>6200</v>
+      </c>
+      <c r="J52" t="s">
+        <v>38</v>
       </c>
       <c r="K52">
-        <v>1962</v>
+        <v>2000</v>
       </c>
       <c r="L52">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M52">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N52" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O52" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P52" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q52" t="s">
-        <v>43</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="R52" t="s">
+        <v>47</v>
       </c>
       <c r="S52" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
       </c>
       <c r="U52" t="s">
         <v>34</v>
@@ -4211,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="AE52" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.35">
@@ -4232,38 +4887,50 @@
         <v>36</v>
       </c>
       <c r="F53">
-        <v>230000</v>
+        <v>350000</v>
       </c>
       <c r="G53">
-        <v>40000</v>
+        <v>30000</v>
+      </c>
+      <c r="H53">
+        <v>5400</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>38</v>
       </c>
       <c r="K53">
-        <v>1963</v>
+        <v>2003</v>
       </c>
       <c r="L53">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M53">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="N53" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O53" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P53" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q53" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R53" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S53" t="s">
         <v>34</v>
       </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
       <c r="U53" t="s">
         <v>34</v>
       </c>
@@ -4274,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="AE53" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.35">
@@ -4295,38 +4962,50 @@
         <v>36</v>
       </c>
       <c r="F54">
-        <v>339000</v>
+        <v>300000</v>
       </c>
       <c r="G54">
-        <v>73500</v>
+        <v>100000</v>
+      </c>
+      <c r="H54">
+        <v>6300</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>38</v>
       </c>
       <c r="K54">
-        <v>1938</v>
+        <v>1995</v>
       </c>
       <c r="L54">
         <v>5</v>
       </c>
       <c r="M54">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="N54" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O54" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P54" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q54" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R54" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S54" t="s">
         <v>34</v>
       </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
       <c r="U54" t="s">
         <v>34</v>
       </c>
@@ -4337,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="AE54" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.35">
@@ -4358,40 +5037,43 @@
         <v>36</v>
       </c>
       <c r="F55">
-        <v>249600</v>
+        <v>280000</v>
       </c>
       <c r="G55">
-        <v>62400</v>
+        <v>33000</v>
       </c>
       <c r="H55">
-        <v>9872</v>
+        <v>9250</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
+      <c r="J55" t="s">
+        <v>38</v>
+      </c>
       <c r="K55">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="L55">
         <v>5</v>
       </c>
       <c r="M55">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="N55" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O55" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P55" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q55" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R55" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S55" t="s">
         <v>34</v>
@@ -4409,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="AE55" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.35">
@@ -4430,38 +5112,50 @@
         <v>36</v>
       </c>
       <c r="F56">
-        <v>317769</v>
+        <v>300000</v>
       </c>
       <c r="G56">
-        <v>35000</v>
+        <v>40000</v>
+      </c>
+      <c r="H56">
+        <v>11000</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>38</v>
       </c>
       <c r="K56">
-        <v>1973</v>
+        <v>1965</v>
       </c>
       <c r="L56">
         <v>5</v>
       </c>
       <c r="M56">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="N56" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O56" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P56" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q56" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R56" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S56" t="s">
         <v>34</v>
       </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
       <c r="U56" t="s">
         <v>34</v>
       </c>
@@ -4472,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="AE56" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.35">
@@ -4493,38 +5187,50 @@
         <v>36</v>
       </c>
       <c r="F57">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="G57">
-        <v>100000</v>
+        <v>40000</v>
+      </c>
+      <c r="H57">
+        <v>3000</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>38</v>
       </c>
       <c r="K57">
-        <v>1991</v>
+        <v>2004</v>
       </c>
       <c r="L57">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M57">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N57" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O57" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P57" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q57" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R57" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S57" t="s">
         <v>34</v>
       </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
       <c r="U57" t="s">
         <v>34</v>
       </c>
@@ -4533,6 +5239,9 @@
       </c>
       <c r="W57">
         <v>0</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.35">
@@ -4550,41 +5259,53 @@
         <v>34</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F58">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="G58">
         <v>50000</v>
       </c>
+      <c r="H58">
+        <v>5500</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58" t="s">
+        <v>38</v>
+      </c>
       <c r="K58">
-        <v>2007</v>
+        <v>1986</v>
       </c>
       <c r="L58">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M58">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N58" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O58" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P58" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q58" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R58" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S58" t="s">
         <v>34</v>
       </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
       <c r="U58" t="s">
         <v>34</v>
       </c>
@@ -4593,6 +5314,9 @@
       </c>
       <c r="W58">
         <v>0</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.35">
@@ -4613,40 +5337,43 @@
         <v>36</v>
       </c>
       <c r="F59">
-        <v>190000</v>
+        <v>932400</v>
       </c>
       <c r="G59">
-        <v>95000</v>
+        <v>71960</v>
       </c>
       <c r="H59">
+        <v>16500</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>38</v>
+      </c>
+      <c r="K59">
         <v>2000</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>2007</v>
-      </c>
       <c r="L59">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M59">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N59" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O59" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P59" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q59" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S59" t="s">
         <v>34</v>
@@ -4662,6 +5389,9 @@
       </c>
       <c r="W59">
         <v>0</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.35">
@@ -4682,38 +5412,50 @@
         <v>36</v>
       </c>
       <c r="F60">
-        <v>210000</v>
+        <v>250000</v>
       </c>
       <c r="G60">
-        <v>23000</v>
+        <v>35000</v>
+      </c>
+      <c r="H60">
+        <v>4500</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>38</v>
       </c>
       <c r="K60">
-        <v>1982</v>
+        <v>1989</v>
       </c>
       <c r="L60">
         <v>5</v>
       </c>
       <c r="M60">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N60" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O60" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P60" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q60" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R60" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S60" t="s">
         <v>34</v>
       </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
       <c r="U60" t="s">
         <v>34</v>
       </c>
@@ -4724,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="AE60" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.35">
@@ -4748,35 +5490,47 @@
         <v>259000</v>
       </c>
       <c r="G61">
-        <v>35980</v>
+        <v>25700</v>
+      </c>
+      <c r="H61">
+        <v>8995</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>38</v>
       </c>
       <c r="K61">
-        <v>1952</v>
+        <v>1980</v>
       </c>
       <c r="L61">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M61">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="N61" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O61" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P61" t="s">
         <v>34</v>
       </c>
       <c r="Q61" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R61" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S61" t="s">
         <v>34</v>
       </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
       <c r="U61" t="s">
         <v>34</v>
       </c>
@@ -4787,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="AE61" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.35">
@@ -4808,38 +5562,50 @@
         <v>36</v>
       </c>
       <c r="F62">
-        <v>250000</v>
+        <v>195000</v>
       </c>
       <c r="G62">
         <v>50000</v>
       </c>
+      <c r="H62">
+        <v>2500</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>38</v>
+      </c>
       <c r="K62">
-        <v>1977</v>
+        <v>2005</v>
       </c>
       <c r="L62">
         <v>5</v>
       </c>
       <c r="M62">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="N62" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O62" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P62" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q62" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R62" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S62" t="s">
         <v>34</v>
       </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
       <c r="U62" t="s">
         <v>34</v>
       </c>
@@ -4850,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="AE62" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.35">
@@ -4871,40 +5637,43 @@
         <v>36</v>
       </c>
       <c r="F63">
-        <v>400000</v>
+        <v>273000</v>
       </c>
       <c r="G63">
-        <v>100000</v>
+        <v>71000</v>
       </c>
       <c r="H63">
-        <v>7900</v>
+        <v>2900</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
+      <c r="J63" t="s">
+        <v>38</v>
+      </c>
       <c r="K63">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="L63">
         <v>5</v>
       </c>
       <c r="M63">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="N63" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O63" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P63" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q63" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R63" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S63" t="s">
         <v>34</v>
@@ -4922,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="AE63" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.35">
@@ -4943,38 +5712,50 @@
         <v>36</v>
       </c>
       <c r="F64">
-        <v>216000</v>
+        <v>500000</v>
       </c>
       <c r="G64">
-        <v>25000</v>
+        <v>60000</v>
+      </c>
+      <c r="H64">
+        <v>11050</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>38</v>
       </c>
       <c r="K64">
-        <v>2021</v>
+        <v>2007</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M64">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="N64" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O64" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P64" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q64" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R64" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S64" t="s">
         <v>34</v>
       </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
       <c r="U64" t="s">
         <v>34</v>
       </c>
@@ -4985,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="AE64" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.35">
@@ -5006,38 +5787,50 @@
         <v>36</v>
       </c>
       <c r="F65">
-        <v>161200</v>
+        <v>400000</v>
       </c>
       <c r="G65">
-        <v>40000</v>
+        <v>55000</v>
+      </c>
+      <c r="H65">
+        <v>13000</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>40</v>
       </c>
       <c r="K65">
-        <v>1975</v>
+        <v>2020</v>
       </c>
       <c r="L65">
         <v>5</v>
       </c>
       <c r="M65">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="N65" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O65" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P65" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q65" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R65" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S65" t="s">
         <v>34</v>
       </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
       <c r="U65" t="s">
         <v>34</v>
       </c>
@@ -5048,7 +5841,7 @@
         <v>0</v>
       </c>
       <c r="AE65" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.35">
@@ -5069,38 +5862,50 @@
         <v>36</v>
       </c>
       <c r="F66">
-        <v>400000</v>
+        <v>470000</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>125000</v>
+      </c>
+      <c r="H66">
+        <v>2000</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66" t="s">
+        <v>38</v>
       </c>
       <c r="K66">
-        <v>1998</v>
+        <v>2004</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M66">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="N66" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O66" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P66" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q66" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R66" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S66" t="s">
         <v>34</v>
       </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
       <c r="U66" t="s">
         <v>34</v>
       </c>
@@ -5109,6 +5914,9 @@
       </c>
       <c r="W66">
         <v>0</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.35">
@@ -5129,38 +5937,50 @@
         <v>36</v>
       </c>
       <c r="F67">
-        <v>410000</v>
+        <v>280000</v>
       </c>
       <c r="G67">
         <v>50000</v>
       </c>
+      <c r="H67">
+        <v>10000</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67" t="s">
+        <v>38</v>
+      </c>
       <c r="K67">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="L67">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M67">
+        <v>48</v>
+      </c>
+      <c r="N67" t="s">
+        <v>41</v>
+      </c>
+      <c r="O67" t="s">
+        <v>41</v>
+      </c>
+      <c r="P67" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>44</v>
+      </c>
+      <c r="R67" t="s">
         <v>47</v>
       </c>
-      <c r="N67" t="s">
-        <v>38</v>
-      </c>
-      <c r="O67" t="s">
-        <v>38</v>
-      </c>
-      <c r="P67" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>41</v>
-      </c>
-      <c r="R67" t="s">
-        <v>44</v>
-      </c>
       <c r="S67" t="s">
         <v>34</v>
       </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
       <c r="U67" t="s">
         <v>34</v>
       </c>
@@ -5171,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="AE67" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.35">
@@ -5192,38 +6012,50 @@
         <v>36</v>
       </c>
       <c r="F68">
-        <v>155400</v>
+        <v>290000</v>
       </c>
       <c r="G68">
-        <v>25700</v>
+        <v>35000</v>
+      </c>
+      <c r="H68">
+        <v>4000</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68" t="s">
+        <v>38</v>
       </c>
       <c r="K68">
-        <v>1999</v>
+        <v>2009</v>
       </c>
       <c r="L68">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M68">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N68" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O68" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P68" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q68" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R68" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S68" t="s">
         <v>34</v>
       </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
       <c r="U68" t="s">
         <v>34</v>
       </c>
@@ -5234,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="AE68" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.35">
@@ -5255,38 +6087,50 @@
         <v>36</v>
       </c>
       <c r="F69">
-        <v>750000</v>
+        <v>225000</v>
       </c>
       <c r="G69">
-        <v>100000</v>
+        <v>65000</v>
+      </c>
+      <c r="H69">
+        <v>12200</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>38</v>
       </c>
       <c r="K69">
-        <v>1962</v>
+        <v>2003</v>
       </c>
       <c r="L69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M69">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="N69" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O69" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P69" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q69" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R69" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S69" t="s">
         <v>34</v>
       </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
       <c r="U69" t="s">
         <v>34</v>
       </c>
@@ -5297,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="AE69" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.35">
@@ -5318,40 +6162,43 @@
         <v>36</v>
       </c>
       <c r="F70">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="G70">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H70">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
+      <c r="J70" t="s">
+        <v>38</v>
+      </c>
       <c r="K70">
-        <v>1963</v>
+        <v>2002</v>
       </c>
       <c r="L70">
         <v>5</v>
       </c>
       <c r="M70">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="N70" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O70" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P70" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q70" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R70" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S70" t="s">
         <v>34</v>
@@ -5369,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="AE70" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.35">
@@ -5390,38 +6237,50 @@
         <v>36</v>
       </c>
       <c r="F71">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="G71">
-        <v>40000</v>
+        <v>30000</v>
+      </c>
+      <c r="H71">
+        <v>2000</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71" t="s">
+        <v>38</v>
       </c>
       <c r="K71">
-        <v>2003</v>
+        <v>2020</v>
       </c>
       <c r="L71">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M71">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="N71" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O71" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P71" t="s">
         <v>34</v>
       </c>
       <c r="Q71" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R71" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S71" t="s">
         <v>34</v>
       </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
       <c r="U71" t="s">
         <v>34</v>
       </c>
@@ -5432,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="AE71" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.35">
@@ -5453,40 +6312,43 @@
         <v>36</v>
       </c>
       <c r="F72">
-        <v>250000</v>
+        <v>500000</v>
       </c>
       <c r="G72">
-        <v>77000</v>
+        <v>50000</v>
       </c>
       <c r="H72">
-        <v>2900</v>
+        <v>1500</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
+      <c r="J72" t="s">
+        <v>38</v>
+      </c>
       <c r="K72">
-        <v>1994</v>
+        <v>1978</v>
       </c>
       <c r="L72">
         <v>5</v>
       </c>
       <c r="M72">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="N72" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O72" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P72" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q72" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R72" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S72" t="s">
         <v>34</v>
@@ -5504,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AE72" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.35">
@@ -5525,38 +6387,50 @@
         <v>36</v>
       </c>
       <c r="F73">
-        <v>350000</v>
+        <v>240000</v>
       </c>
       <c r="G73">
-        <v>30000</v>
+        <v>35300</v>
+      </c>
+      <c r="H73">
+        <v>11990</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73" t="s">
+        <v>38</v>
       </c>
       <c r="K73">
-        <v>1987</v>
+        <v>2016</v>
       </c>
       <c r="L73">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="M73">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="N73" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O73" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P73" t="s">
         <v>34</v>
       </c>
       <c r="Q73" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R73" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S73" t="s">
         <v>34</v>
       </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
       <c r="U73" t="s">
         <v>34</v>
       </c>
@@ -5567,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="AE73" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.35">
@@ -5585,43 +6459,46 @@
         <v>34</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F74">
-        <v>350000</v>
+        <v>270000</v>
       </c>
       <c r="G74">
-        <v>35000</v>
+        <v>80000</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
+      <c r="J74" t="s">
+        <v>38</v>
+      </c>
       <c r="K74">
-        <v>1999</v>
+        <v>1974</v>
       </c>
       <c r="L74">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M74">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="N74" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O74" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P74" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q74" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R74" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S74" t="s">
         <v>34</v>
@@ -5637,6 +6514,9 @@
       </c>
       <c r="W74">
         <v>0</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.35">
@@ -5654,43 +6534,46 @@
         <v>34</v>
       </c>
       <c r="E75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F75">
-        <v>350000</v>
+        <v>568000</v>
       </c>
       <c r="G75">
-        <v>55000</v>
+        <v>92520</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
+      <c r="J75" t="s">
+        <v>38</v>
+      </c>
       <c r="K75">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="L75">
         <v>6</v>
       </c>
       <c r="M75">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N75" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O75" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P75" t="s">
         <v>34</v>
       </c>
       <c r="Q75" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R75" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S75" t="s">
         <v>34</v>
@@ -5706,6 +6589,9 @@
       </c>
       <c r="W75">
         <v>0</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.35">
@@ -5726,46 +6612,49 @@
         <v>36</v>
       </c>
       <c r="F76">
-        <v>260000</v>
+        <v>170000</v>
       </c>
       <c r="G76">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="H76">
-        <v>2250</v>
+        <v>5600</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
+      <c r="J76" t="s">
+        <v>38</v>
+      </c>
       <c r="K76">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="L76">
         <v>5</v>
       </c>
       <c r="M76">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="N76" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O76" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P76" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q76" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R76" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S76" t="s">
         <v>34</v>
       </c>
       <c r="T76">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="U76" t="s">
         <v>34</v>
@@ -5777,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="AE76" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.35">
@@ -5798,49 +6687,61 @@
         <v>36</v>
       </c>
       <c r="F77">
-        <v>450000</v>
+        <v>300000</v>
       </c>
       <c r="G77">
-        <v>50000</v>
+        <v>30000</v>
+      </c>
+      <c r="H77">
+        <v>6000</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77" t="s">
+        <v>38</v>
       </c>
       <c r="K77">
-        <v>2018</v>
+        <v>2006</v>
       </c>
       <c r="L77">
         <v>5</v>
       </c>
       <c r="M77">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="N77" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O77" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P77" t="s">
         <v>34</v>
       </c>
       <c r="Q77" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R77" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S77" t="s">
         <v>34</v>
       </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
       <c r="U77" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="V77">
         <v>0</v>
       </c>
       <c r="W77">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="AE77" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.35">
@@ -5861,43 +6762,46 @@
         <v>36</v>
       </c>
       <c r="F78">
-        <v>160000</v>
+        <v>310000</v>
       </c>
       <c r="G78">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="H78">
-        <v>2500</v>
+        <v>9590</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
+      <c r="J78" t="s">
+        <v>38</v>
+      </c>
       <c r="K78">
-        <v>1954</v>
+        <v>1948</v>
       </c>
       <c r="L78">
         <v>5</v>
       </c>
       <c r="M78">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N78" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O78" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P78" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q78" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R78" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="S78" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="T78">
         <v>0</v>
@@ -5912,7 +6816,7 @@
         <v>0</v>
       </c>
       <c r="AE78" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.35">
@@ -5933,38 +6837,50 @@
         <v>36</v>
       </c>
       <c r="F79">
-        <v>264448</v>
+        <v>300000</v>
       </c>
       <c r="G79">
-        <v>39670</v>
+        <v>40000</v>
+      </c>
+      <c r="H79">
+        <v>5500</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79" t="s">
+        <v>38</v>
       </c>
       <c r="K79">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="L79">
         <v>5</v>
       </c>
       <c r="M79">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N79" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O79" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P79" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q79" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R79" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S79" t="s">
         <v>34</v>
       </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
       <c r="U79" t="s">
         <v>34</v>
       </c>
@@ -5975,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="AE79" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.35">
@@ -5996,38 +6912,50 @@
         <v>36</v>
       </c>
       <c r="F80">
-        <v>466200</v>
+        <v>325000</v>
       </c>
       <c r="G80">
-        <v>77100</v>
+        <v>45000</v>
+      </c>
+      <c r="H80">
+        <v>1000</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80" t="s">
+        <v>38</v>
       </c>
       <c r="K80">
-        <v>1957</v>
+        <v>1989</v>
       </c>
       <c r="L80">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M80">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="N80" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O80" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P80" t="s">
         <v>34</v>
       </c>
       <c r="Q80" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R80" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S80" t="s">
         <v>34</v>
       </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
       <c r="U80" t="s">
         <v>34</v>
       </c>
@@ -6038,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="AE80" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.35">
@@ -6059,40 +6987,43 @@
         <v>36</v>
       </c>
       <c r="F81">
-        <v>186480</v>
+        <v>379777</v>
       </c>
       <c r="G81">
-        <v>15420</v>
+        <v>75369</v>
       </c>
       <c r="H81">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
+      <c r="J81" t="s">
+        <v>38</v>
+      </c>
       <c r="K81">
-        <v>1988</v>
+        <v>1998</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M81">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="N81" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O81" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P81" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q81" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R81" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S81" t="s">
         <v>34</v>
@@ -6110,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="AE81" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.35">
@@ -6131,38 +7062,50 @@
         <v>36</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="G82">
-        <v>75000</v>
+        <v>46000</v>
+      </c>
+      <c r="H82">
+        <v>14910</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82" t="s">
+        <v>38</v>
       </c>
       <c r="K82">
-        <v>2006</v>
+        <v>1968</v>
       </c>
       <c r="L82">
         <v>5</v>
       </c>
       <c r="M82">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="N82" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O82" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P82" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q82" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R82" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S82" t="s">
         <v>34</v>
       </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
       <c r="U82" t="s">
         <v>34</v>
       </c>
@@ -6173,7 +7116,7 @@
         <v>0</v>
       </c>
       <c r="AE82" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.35">
@@ -6191,41 +7134,53 @@
         <v>34</v>
       </c>
       <c r="E83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F83">
-        <v>560000</v>
+        <v>207200</v>
       </c>
       <c r="G83">
-        <v>80000</v>
+        <v>30840</v>
+      </c>
+      <c r="H83">
+        <v>5000</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83" t="s">
+        <v>38</v>
       </c>
       <c r="K83">
-        <v>1980</v>
+        <v>2007</v>
       </c>
       <c r="L83">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M83">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="N83" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O83" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P83" t="s">
         <v>34</v>
       </c>
       <c r="Q83" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="R83" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S83" t="s">
         <v>34</v>
       </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
       <c r="U83" t="s">
         <v>34</v>
       </c>
@@ -6234,6 +7189,9 @@
       </c>
       <c r="W83">
         <v>0</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.35">
@@ -6254,38 +7212,50 @@
         <v>36</v>
       </c>
       <c r="F84">
-        <v>250000</v>
+        <v>450000</v>
       </c>
       <c r="G84">
-        <v>73000</v>
+        <v>62000</v>
+      </c>
+      <c r="H84">
+        <v>21000</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84" t="s">
+        <v>38</v>
       </c>
       <c r="K84">
-        <v>2005</v>
+        <v>1980</v>
       </c>
       <c r="L84">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M84">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N84" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O84" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P84" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q84" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="R84" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S84" t="s">
         <v>34</v>
       </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
       <c r="U84" t="s">
         <v>34</v>
       </c>
@@ -6296,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="AE84" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.35">
@@ -6317,43 +7287,46 @@
         <v>36</v>
       </c>
       <c r="F85">
-        <v>220000</v>
+        <v>207200</v>
       </c>
       <c r="G85">
-        <v>76500</v>
+        <v>30840</v>
       </c>
       <c r="H85">
-        <v>1400</v>
+        <v>7000</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
+      <c r="J85" t="s">
+        <v>38</v>
+      </c>
       <c r="K85">
-        <v>2006</v>
+        <v>1969</v>
       </c>
       <c r="L85">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M85">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="N85" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O85" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P85" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q85" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="R85" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S85" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="T85">
         <v>0</v>
@@ -6368,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="AE85" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.35">
@@ -6389,40 +7362,43 @@
         <v>36</v>
       </c>
       <c r="F86">
-        <v>160000</v>
+        <v>400000</v>
       </c>
       <c r="G86">
-        <v>40000</v>
+        <v>30840</v>
       </c>
       <c r="H86">
-        <v>1000</v>
+        <v>6600</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
+      <c r="J86" t="s">
+        <v>38</v>
+      </c>
       <c r="K86">
-        <v>1956</v>
+        <v>2006</v>
       </c>
       <c r="L86">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M86">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N86" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O86" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P86" t="s">
         <v>34</v>
       </c>
       <c r="Q86" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R86" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S86" t="s">
         <v>34</v>
@@ -6440,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="AE86" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.35">
@@ -6461,37 +7437,49 @@
         <v>36</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>310800</v>
       </c>
       <c r="G87">
-        <v>51400</v>
+        <v>41120</v>
+      </c>
+      <c r="H87">
+        <v>3144</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87" t="s">
+        <v>38</v>
       </c>
       <c r="K87">
-        <v>1995</v>
+        <v>1974</v>
       </c>
       <c r="L87">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M87">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N87" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O87" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P87" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q87" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R87" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S87" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
       </c>
       <c r="U87" t="s">
         <v>34</v>
@@ -6503,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="AE87" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.35">
@@ -6524,38 +7512,50 @@
         <v>36</v>
       </c>
       <c r="F88">
-        <v>259000</v>
+        <v>308441</v>
       </c>
       <c r="G88">
-        <v>41120</v>
+        <v>20000</v>
+      </c>
+      <c r="H88">
+        <v>4000</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88" t="s">
+        <v>38</v>
       </c>
       <c r="K88">
-        <v>1940</v>
+        <v>1954</v>
       </c>
       <c r="L88">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M88">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N88" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O88" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P88" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q88" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R88" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S88" t="s">
         <v>34</v>
       </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
       <c r="U88" t="s">
         <v>34</v>
       </c>
@@ -6566,7 +7566,7 @@
         <v>0</v>
       </c>
       <c r="AE88" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.35">
@@ -6587,40 +7587,43 @@
         <v>36</v>
       </c>
       <c r="F89">
-        <v>238280</v>
+        <v>207200</v>
       </c>
       <c r="G89">
-        <v>41120</v>
+        <v>46260</v>
       </c>
       <c r="H89">
-        <v>1500</v>
+        <v>22500</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
+      <c r="J89" t="s">
+        <v>38</v>
+      </c>
       <c r="K89">
-        <v>1986</v>
+        <v>2009</v>
       </c>
       <c r="L89">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M89">
+        <v>47</v>
+      </c>
+      <c r="N89" t="s">
+        <v>41</v>
+      </c>
+      <c r="O89" t="s">
+        <v>41</v>
+      </c>
+      <c r="P89" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q89" t="s">
         <v>45</v>
       </c>
-      <c r="N89" t="s">
-        <v>38</v>
-      </c>
-      <c r="O89" t="s">
-        <v>38</v>
-      </c>
-      <c r="P89" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>42</v>
-      </c>
       <c r="R89" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S89" t="s">
         <v>34</v>
@@ -6638,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="AE89" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.35">
@@ -6659,38 +7662,50 @@
         <v>36</v>
       </c>
       <c r="F90">
-        <v>300440</v>
+        <v>207200</v>
       </c>
       <c r="G90">
-        <v>51400</v>
+        <v>59091</v>
+      </c>
+      <c r="H90">
+        <v>22136</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90" t="s">
+        <v>40</v>
       </c>
       <c r="K90">
-        <v>1940</v>
+        <v>1620</v>
       </c>
       <c r="L90">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M90">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N90" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O90" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P90" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q90" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R90" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S90" t="s">
         <v>34</v>
       </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
       <c r="U90" t="s">
         <v>34</v>
       </c>
@@ -6701,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="AE90" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.35">
@@ -6722,38 +7737,50 @@
         <v>36</v>
       </c>
       <c r="F91">
-        <v>130000</v>
+        <v>362600</v>
       </c>
       <c r="G91">
-        <v>15000</v>
+        <v>61680</v>
+      </c>
+      <c r="H91">
+        <v>26100</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91" t="s">
+        <v>38</v>
       </c>
       <c r="K91">
-        <v>1974</v>
+        <v>2003</v>
       </c>
       <c r="L91">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M91">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N91" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O91" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P91" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q91" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R91" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S91" t="s">
         <v>34</v>
       </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
       <c r="U91" t="s">
         <v>34</v>
       </c>
@@ -6764,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="AE91" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.35">
@@ -6785,34 +7812,43 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>165760</v>
+        <v>275177</v>
       </c>
       <c r="G92">
-        <v>41120</v>
+        <v>35980</v>
+      </c>
+      <c r="H92">
+        <v>4200</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92" t="s">
+        <v>38</v>
       </c>
       <c r="K92">
-        <v>2002</v>
+        <v>1966</v>
       </c>
       <c r="L92">
         <v>9</v>
       </c>
       <c r="M92">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="N92" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O92" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P92" t="s">
         <v>34</v>
       </c>
       <c r="Q92" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R92" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S92" t="s">
         <v>34</v>
@@ -6827,7 +7863,7 @@
         <v>0</v>
       </c>
       <c r="AE92" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.35">
@@ -6845,37 +7881,46 @@
         <v>34</v>
       </c>
       <c r="E93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F93">
-        <v>492100</v>
+        <v>165000</v>
       </c>
       <c r="G93">
-        <v>92520</v>
+        <v>35000</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93" t="s">
+        <v>38</v>
       </c>
       <c r="K93">
-        <v>1993</v>
+        <v>1999</v>
       </c>
       <c r="L93">
         <v>6</v>
       </c>
       <c r="M93">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="N93" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O93" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P93" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R93" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S93" t="s">
         <v>34</v>
@@ -6890,7 +7935,7 @@
         <v>0</v>
       </c>
       <c r="AE93" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.35">
@@ -6911,34 +7956,43 @@
         <v>35</v>
       </c>
       <c r="F94">
-        <v>400000</v>
+        <v>350000</v>
       </c>
       <c r="G94">
-        <v>48000</v>
+        <v>50000</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94" t="s">
+        <v>38</v>
       </c>
       <c r="K94">
-        <v>1940</v>
+        <v>1932</v>
       </c>
       <c r="L94">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M94">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="N94" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O94" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P94" t="s">
         <v>34</v>
       </c>
       <c r="Q94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R94" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S94" t="s">
         <v>34</v>
@@ -6951,6 +8005,9 @@
       </c>
       <c r="W94">
         <v>0</v>
+      </c>
+      <c r="AE94" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.35">
@@ -6968,37 +8025,46 @@
         <v>34</v>
       </c>
       <c r="E95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="G95">
-        <v>30840</v>
+        <v>50000</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95" t="s">
+        <v>38</v>
       </c>
       <c r="K95">
-        <v>1992</v>
+        <v>2019</v>
       </c>
       <c r="L95">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="M95">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="N95" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O95" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P95" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R95" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S95" t="s">
         <v>34</v>
@@ -7013,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="AE95" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.35">
@@ -7031,50 +8097,50 @@
         <v>34</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F96">
-        <v>500000</v>
+        <v>160000</v>
       </c>
       <c r="G96">
-        <v>41120</v>
+        <v>23000</v>
       </c>
       <c r="H96">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
+      <c r="J96" t="s">
+        <v>38</v>
+      </c>
       <c r="K96">
-        <v>1982</v>
+        <v>2022</v>
       </c>
       <c r="L96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M96">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="N96" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O96" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P96" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R96" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S96" t="s">
         <v>34</v>
       </c>
-      <c r="T96">
-        <v>0</v>
-      </c>
       <c r="U96" t="s">
         <v>34</v>
       </c>
@@ -7085,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="AE96" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.35">
@@ -7103,37 +8169,46 @@
         <v>34</v>
       </c>
       <c r="E97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>365000</v>
       </c>
       <c r="G97">
-        <v>23000</v>
+        <v>50000</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97" t="s">
+        <v>38</v>
       </c>
       <c r="K97">
-        <v>1995</v>
+        <v>2021</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="N97" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O97" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P97" t="s">
         <v>34</v>
       </c>
       <c r="Q97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R97" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S97" t="s">
         <v>34</v>
@@ -7148,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="AE97" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.35">
@@ -7166,50 +8241,50 @@
         <v>34</v>
       </c>
       <c r="E98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F98">
-        <v>186480</v>
+        <v>280000</v>
       </c>
       <c r="G98">
-        <v>15420</v>
+        <v>60000</v>
       </c>
       <c r="H98">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
+      <c r="J98" t="s">
+        <v>38</v>
+      </c>
       <c r="K98">
-        <v>1983</v>
+        <v>1973</v>
       </c>
       <c r="L98">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="M98">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="N98" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O98" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P98" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R98" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S98" t="s">
         <v>34</v>
       </c>
-      <c r="T98">
-        <v>0</v>
-      </c>
       <c r="U98" t="s">
         <v>34</v>
       </c>
@@ -7220,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="AE98" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.35">
@@ -7238,37 +8313,46 @@
         <v>34</v>
       </c>
       <c r="E99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F99">
-        <v>348096</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>20560</v>
+        <v>25000</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99" t="s">
+        <v>38</v>
       </c>
       <c r="K99">
-        <v>1962</v>
+        <v>2001</v>
       </c>
       <c r="L99">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M99">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="N99" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O99" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P99" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R99" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S99" t="s">
         <v>34</v>
@@ -7283,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="AE99" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.35">
@@ -7301,41 +8385,53 @@
         <v>34</v>
       </c>
       <c r="E100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F100">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>15420</v>
+        <v>23000</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>38</v>
       </c>
       <c r="K100">
-        <v>1995</v>
+        <v>2004</v>
       </c>
       <c r="L100">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M100">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="N100" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O100" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P100" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q100" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R100" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S100" t="s">
         <v>34</v>
       </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
       <c r="U100" t="s">
         <v>34</v>
       </c>
@@ -7344,6 +8440,9 @@
       </c>
       <c r="W100">
         <v>0</v>
+      </c>
+      <c r="AE100" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.35">
@@ -7361,50 +8460,50 @@
         <v>34</v>
       </c>
       <c r="E101" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F101">
-        <v>404040</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>78776</v>
+        <v>200000</v>
       </c>
       <c r="H101">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
+      <c r="J101" t="s">
+        <v>38</v>
+      </c>
       <c r="K101">
-        <v>1974</v>
+        <v>2022</v>
       </c>
       <c r="L101">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M101">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="N101" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O101" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P101" t="s">
         <v>34</v>
       </c>
       <c r="Q101" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R101" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S101" t="s">
         <v>34</v>
       </c>
-      <c r="T101">
-        <v>4400</v>
-      </c>
       <c r="U101" t="s">
         <v>34</v>
       </c>
@@ -7415,10 +8514,14 @@
         <v>0</v>
       </c>
       <c r="AE101" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="AE1:AE1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>